--- a/Epilepsy_Seizure_list.xlsx
+++ b/Epilepsy_Seizure_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beata\Documents\Epi25letters\ExECTOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beata\Documents\GitHub_folders\ExECT-PostProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7798B34-8B57-4417-9908-5858AC14D1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DFC26B-F6E9-45AE-9F93-F82614F52164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{5057C868-ABE5-449B-BA94-70CBCA7090BC}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="647">
   <si>
     <t>myoclonic epilepsy</t>
   </si>
@@ -2043,17 +2043,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2438,23 +2432,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83649BD8-6D77-487A-84FC-F20E87199EA1}">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B83" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>645</v>
       </c>
@@ -2480,2856 +2474,2440 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2" t="s">
         <v>619</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>637</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" t="s">
         <v>623</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D4" t="s">
+        <v>577</v>
+      </c>
+      <c r="F4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D8" t="s">
+        <v>577</v>
+      </c>
+      <c r="F8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>468</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>467</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>466</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>577</v>
+      </c>
+      <c r="F9" t="s">
+        <v>577</v>
+      </c>
+      <c r="G9" t="s">
         <v>567</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>500</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>501</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>502</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>612</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>577</v>
+      </c>
+      <c r="F12" t="s">
+        <v>577</v>
+      </c>
+      <c r="H12" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>497</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>498</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>326</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" t="s">
+        <v>577</v>
+      </c>
+      <c r="G17" t="s">
         <v>629</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>319</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F18" t="s">
+        <v>577</v>
+      </c>
+      <c r="G18" t="s">
         <v>629</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="D19" t="s">
+        <v>578</v>
+      </c>
+      <c r="F19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>545</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>546</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>545</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>478</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>479</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>337</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>397</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>396</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="D23" t="s">
+        <v>578</v>
+      </c>
+      <c r="F23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>578</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>442</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>441</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D25" t="s">
+        <v>578</v>
+      </c>
+      <c r="F25" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>491</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>489</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>490</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="D26" t="s">
+        <v>578</v>
+      </c>
+      <c r="F26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>142</v>
       </c>
       <c r="D27" t="s">
         <v>578</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>578</v>
+      </c>
+      <c r="G27" t="s">
         <v>621</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="D28" t="s">
+        <v>578</v>
+      </c>
+      <c r="F28" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>439</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>437</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D29" t="s">
+        <v>578</v>
+      </c>
+      <c r="F29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>577</v>
+      </c>
+      <c r="F30" t="s">
+        <v>577</v>
+      </c>
+      <c r="G30" t="s">
         <v>563</v>
       </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>493</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>638</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>493</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
+      <c r="D31" t="s">
+        <v>577</v>
+      </c>
+      <c r="F31" t="s">
+        <v>577</v>
+      </c>
+      <c r="H31" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="D32" t="s">
+        <v>578</v>
+      </c>
+      <c r="F32" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>496</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>494</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>495</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="D34" t="s">
+        <v>578</v>
+      </c>
+      <c r="F34" t="s">
+        <v>578</v>
+      </c>
+      <c r="G34" t="s">
         <v>601</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>643</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>642</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>644</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="D35" t="s">
+        <v>578</v>
+      </c>
+      <c r="F35" t="s">
+        <v>578</v>
+      </c>
+      <c r="G35" t="s">
         <v>601</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>469</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>470</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>471</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>578</v>
+      </c>
+      <c r="F36" t="s">
+        <v>578</v>
+      </c>
+      <c r="G36" t="s">
         <v>601</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>445</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>444</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>443</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>578</v>
+      </c>
+      <c r="F37" t="s">
+        <v>578</v>
+      </c>
+      <c r="G37" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="D38" t="s">
+        <v>578</v>
+      </c>
+      <c r="F38" t="s">
+        <v>578</v>
+      </c>
+      <c r="G38" t="s">
         <v>601</v>
       </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>472</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>473</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>472</v>
+      </c>
+      <c r="D39" t="s">
+        <v>578</v>
+      </c>
+      <c r="F39" t="s">
+        <v>578</v>
+      </c>
+      <c r="G39" t="s">
         <v>601</v>
       </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="D40" t="s">
+        <v>578</v>
+      </c>
+      <c r="F40" t="s">
+        <v>578</v>
+      </c>
+      <c r="G40" t="s">
         <v>601</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>244</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>245</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="D41" t="s">
+        <v>578</v>
+      </c>
+      <c r="F41" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>290</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>290</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="D42" t="s">
+        <v>577</v>
+      </c>
+      <c r="F42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" t="s">
+        <v>578</v>
+      </c>
+      <c r="E43" t="s">
         <v>613</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="F43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>504</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="D45" t="s">
+        <v>577</v>
+      </c>
+      <c r="F45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>322</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>323</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="F46" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>426</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>424</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>425</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="F47" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>427</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>428</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>429</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="F48" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>574</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>611</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>211</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="D51" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>362</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" t="s">
         <v>363</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" t="s">
         <v>362</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>524</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>525</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>526</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>527</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>528</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>529</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>538</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>536</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>537</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>574</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>539</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>540</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>541</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>574</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>549</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>547</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>548</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="D57" t="s">
+        <v>578</v>
+      </c>
+      <c r="E57" t="s">
         <v>574</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
+      <c r="H57" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>552</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>553</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>554</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="D58" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>550</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>551</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>550</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>292</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>624</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>532</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>530</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>531</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>574</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="D62" t="s">
+        <v>578</v>
+      </c>
+      <c r="E62" t="s">
         <v>574</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>535</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>533</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>534</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" t="s">
+        <v>578</v>
+      </c>
+      <c r="E63" t="s">
         <v>574</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>570</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="D64" t="s">
+        <v>577</v>
+      </c>
+      <c r="F64" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>544</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>542</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>543</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="D65" t="s">
+        <v>578</v>
+      </c>
+      <c r="E65" t="s">
         <v>574</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>401</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>402</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>403</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>248</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>246</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>247</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>415</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>413</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>414</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>406</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" t="s">
         <v>407</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" t="s">
         <v>406</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>404</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" t="s">
         <v>405</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" t="s">
         <v>404</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>474</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>475</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>476</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>618</v>
       </c>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>186</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>359</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>360</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>361</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>237</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>239</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="D76" t="s">
+        <v>577</v>
+      </c>
+      <c r="F76" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>409</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>408</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>409</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>483</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>484</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>485</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="D79" t="s">
+        <v>578</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>339</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>340</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>341</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="D80" t="s">
+        <v>578</v>
+      </c>
+      <c r="F80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>634</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="D81" t="s">
+        <v>578</v>
+      </c>
+      <c r="F81" t="s">
+        <v>578</v>
+      </c>
+      <c r="G81" t="s">
         <v>601</v>
       </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>555</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>556</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>555</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="D82" t="s">
+        <v>578</v>
+      </c>
+      <c r="F82" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>198</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>199</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>200</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="D83" t="s">
+        <v>578</v>
+      </c>
+      <c r="F83" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>576</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="D84" t="s">
+        <v>578</v>
+      </c>
+      <c r="F84" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="D85" t="s">
+        <v>578</v>
+      </c>
+      <c r="F85" t="s">
+        <v>578</v>
+      </c>
+      <c r="G85" t="s">
         <v>592</v>
       </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>329</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>328</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="D86" t="s">
+        <v>578</v>
+      </c>
+      <c r="F86" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>301</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>302</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>303</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="D87" t="s">
+        <v>578</v>
+      </c>
+      <c r="F87" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>256</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="F88" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="D89" t="s">
+        <v>578</v>
+      </c>
+      <c r="F89" t="s">
+        <v>578</v>
+      </c>
+      <c r="G89" t="s">
         <v>596</v>
       </c>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="D90" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>586</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="D91" t="s">
+        <v>578</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
+      <c r="D92" t="s">
+        <v>578</v>
+      </c>
+      <c r="F92" t="s">
         <v>587</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>595</v>
       </c>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>66</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>68</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1" t="s">
+      <c r="H93" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>369</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>370</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>371</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>614</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="D95" t="s">
+        <v>578</v>
+      </c>
+      <c r="E95" t="s">
         <v>613</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="F95" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="D96" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>176</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>174</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>175</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="D97" t="s">
+        <v>577</v>
+      </c>
+      <c r="F97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="D98" t="s">
+        <v>577</v>
+      </c>
+      <c r="F98" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>488</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>486</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>487</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="D99" t="s">
+        <v>577</v>
+      </c>
+      <c r="F99" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>300</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="F100" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="D101" t="s">
+        <v>577</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>42</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>43</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="D102" t="s">
+        <v>577</v>
+      </c>
+      <c r="F102" t="s">
+        <v>577</v>
+      </c>
+      <c r="G102" t="s">
         <v>593</v>
       </c>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>72</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="D103" t="s">
+        <v>577</v>
+      </c>
+      <c r="F103" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>375</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>376</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>377</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>6</v>
       </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>158</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>156</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="D105" t="s">
+        <v>578</v>
+      </c>
+      <c r="F105" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
         <v>574</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>69</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>70</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>69</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1" t="s">
+      <c r="H107" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>37</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>38</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1" t="s">
+      <c r="H108" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>137</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>138</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H109" s="1" t="s">
+      <c r="D109" t="s">
+        <v>577</v>
+      </c>
+      <c r="F109" t="s">
+        <v>577</v>
+      </c>
+      <c r="H109" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>521</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>522</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>523</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="F110" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>583</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>584</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1" t="s">
+      <c r="F111" t="s">
         <v>575</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" t="s">
         <v>633</v>
       </c>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>455</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>457</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="D112" t="s">
+        <v>577</v>
+      </c>
+      <c r="F112" t="s">
+        <v>577</v>
+      </c>
+      <c r="G112" t="s">
         <v>632</v>
       </c>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G113" s="1" t="s">
+      <c r="D113" t="s">
+        <v>578</v>
+      </c>
+      <c r="F113" t="s">
+        <v>578</v>
+      </c>
+      <c r="G113" t="s">
         <v>592</v>
       </c>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>145</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" t="s">
         <v>144</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1" t="s">
+      <c r="D114" t="s">
+        <v>577</v>
+      </c>
+      <c r="F114" t="s">
+        <v>577</v>
+      </c>
+      <c r="H114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>515</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>513</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>514</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G115" s="1" t="s">
+      <c r="D115" t="s">
+        <v>577</v>
+      </c>
+      <c r="F115" t="s">
+        <v>577</v>
+      </c>
+      <c r="G115" t="s">
         <v>619</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>171</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>172</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>171</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>454</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>452</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>453</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>451</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>449</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" t="s">
         <v>450</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>77</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>78</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="G119" s="1" t="s">
+      <c r="G119" t="s">
         <v>611</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="H119" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>293</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>294</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>295</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="D120" t="s">
+        <v>578</v>
+      </c>
+      <c r="F120" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>283</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>284</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>285</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="D121" t="s">
+        <v>578</v>
+      </c>
+      <c r="F121" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>610</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>296</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>297</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="D122" t="s">
+        <v>578</v>
+      </c>
+      <c r="E122" t="s">
         <v>574</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="F122" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>635</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>636</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>635</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="D123" t="s">
+        <v>578</v>
+      </c>
+      <c r="E123" t="s">
         <v>574</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="F123" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>516</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>517</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>518</v>
       </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>419</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>420</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>421</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="D125" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>333</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>334</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" t="s">
         <v>335</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+    </row>
+    <row r="127" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="D127" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>561</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" t="s">
         <v>559</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" t="s">
         <v>560</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="D128" t="s">
+        <v>577</v>
+      </c>
+      <c r="F128" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>276</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>275</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>276</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
+      <c r="D129" t="s">
+        <v>577</v>
+      </c>
+      <c r="F129" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="D130" t="s">
+        <v>577</v>
+      </c>
+      <c r="F130" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>422</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="C131" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>511</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>509</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" t="s">
         <v>510</v>
       </c>
-      <c r="E132" s="1"/>
-      <c r="G132" s="1" t="s">
+      <c r="G132" t="s">
         <v>646</v>
       </c>
-      <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>63</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" t="s">
         <v>62</v>
       </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1" t="s">
+      <c r="G133" t="s">
         <v>63</v>
       </c>
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>240</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>241</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" t="s">
         <v>242</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="D134" t="s">
+        <v>578</v>
+      </c>
+      <c r="F134" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>104</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>102</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" t="s">
         <v>103</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G135" s="1" t="s">
+      <c r="D135" t="s">
+        <v>577</v>
+      </c>
+      <c r="F135" t="s">
+        <v>577</v>
+      </c>
+      <c r="G135" t="s">
         <v>567</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>217</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>215</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" t="s">
         <v>216</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="D136" t="s">
+        <v>578</v>
+      </c>
+      <c r="F136" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>227</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>225</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" t="s">
         <v>226</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" t="s">
         <v>6</v>
       </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>252</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>253</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" t="s">
         <v>254</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="D138" t="s">
+        <v>578</v>
+      </c>
+      <c r="F138" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>214</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>213</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" t="s">
         <v>212</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="D139" t="s">
+        <v>578</v>
+      </c>
+      <c r="F139" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>641</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>639</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" t="s">
         <v>640</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="D140" t="s">
+        <v>578</v>
+      </c>
+      <c r="F140" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>166</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" t="s">
         <v>167</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="D141" t="s">
+        <v>578</v>
+      </c>
+      <c r="F141" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>162</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>163</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" t="s">
         <v>164</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="D142" t="s">
+        <v>578</v>
+      </c>
+      <c r="F142" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>168</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>169</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" t="s">
         <v>170</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="D143" t="s">
+        <v>578</v>
+      </c>
+      <c r="F143" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>233</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>231</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" t="s">
         <v>232</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>381</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>382</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" t="s">
         <v>383</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>606</v>
       </c>
       <c r="B146" t="s">
@@ -5338,1103 +4916,928 @@
       <c r="C146" t="s">
         <v>465</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="D146" t="s">
+        <v>578</v>
+      </c>
+      <c r="E146" t="s">
         <v>574</v>
       </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1" t="s">
+      <c r="H146" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" t="s">
         <v>5</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="D147" t="s">
+        <v>578</v>
+      </c>
+      <c r="E147" t="s">
         <v>574</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="F147" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>191</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>189</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" t="s">
         <v>190</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" t="s">
         <v>6</v>
       </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>236</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>234</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>235</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="F149" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>380</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>378</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" t="s">
         <v>379</v>
       </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>203</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>201</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>202</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>448</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>446</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" t="s">
         <v>447</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>161</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" t="s">
         <v>613</v>
       </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>350</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>348</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" t="s">
         <v>349</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" t="s">
         <v>6</v>
       </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>609</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>367</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" t="s">
         <v>368</v>
       </c>
-      <c r="E155" s="1"/>
-      <c r="G155" s="1" t="s">
+      <c r="G155" t="s">
         <v>646</v>
       </c>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>95</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>96</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" t="s">
         <v>97</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G156" s="1" t="s">
+      <c r="D156" t="s">
+        <v>577</v>
+      </c>
+      <c r="F156" t="s">
+        <v>577</v>
+      </c>
+      <c r="G156" t="s">
         <v>563</v>
       </c>
-      <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>35</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>33</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" t="s">
         <v>34</v>
       </c>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1" t="s">
+      <c r="F157" t="s">
         <v>575</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>79</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>80</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" t="s">
         <v>79</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E158" s="1" t="s">
+      <c r="D158" t="s">
+        <v>578</v>
+      </c>
+      <c r="E158" t="s">
         <v>608</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1" t="s">
+      <c r="F158" t="s">
+        <v>578</v>
+      </c>
+      <c r="H158" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>195</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>196</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" t="s">
         <v>197</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="D159" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>461</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>462</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" t="s">
         <v>463</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="D160" t="s">
+        <v>578</v>
+      </c>
+      <c r="F160" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>307</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>308</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" t="s">
         <v>307</v>
       </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>122</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>123</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" t="s">
         <v>124</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G162" s="1" t="s">
+      <c r="D162" t="s">
+        <v>578</v>
+      </c>
+      <c r="F162" t="s">
+        <v>577</v>
+      </c>
+      <c r="G162" t="s">
         <v>616</v>
       </c>
-      <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>347</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>345</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" t="s">
         <v>346</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G163" s="1" t="s">
+      <c r="D163" t="s">
+        <v>578</v>
+      </c>
+      <c r="F163" t="s">
+        <v>577</v>
+      </c>
+      <c r="G163" t="s">
         <v>630</v>
       </c>
-      <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>458</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>459</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" t="s">
         <v>460</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1" t="s">
+      <c r="D164" t="s">
+        <v>578</v>
+      </c>
+      <c r="H164" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>16</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>317</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>316</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" t="s">
         <v>317</v>
       </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>351</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>352</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" t="s">
         <v>351</v>
       </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1" t="s">
+      <c r="E167" t="s">
         <v>574</v>
       </c>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>304</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s">
         <v>305</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" t="s">
         <v>306</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="D168" t="s">
+        <v>578</v>
+      </c>
+      <c r="F168" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>152</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>150</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" t="s">
         <v>151</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" t="s">
         <v>6</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" t="s">
         <v>613</v>
       </c>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>519</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>520</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" t="s">
         <v>518</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" t="s">
         <v>6</v>
       </c>
-      <c r="E170" s="1"/>
-      <c r="G170" s="1" t="s">
+      <c r="G170" t="s">
         <v>7</v>
       </c>
-      <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>430</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>428</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" t="s">
         <v>429</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="F171" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>76</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>74</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" t="s">
         <v>75</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="D172" t="s">
+        <v>578</v>
+      </c>
+      <c r="F172" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>113</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>114</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" t="s">
         <v>115</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G173" s="1" t="s">
+      <c r="D173" t="s">
+        <v>578</v>
+      </c>
+      <c r="F173" t="s">
+        <v>578</v>
+      </c>
+      <c r="G173" t="s">
         <v>615</v>
       </c>
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>194</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>192</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" t="s">
         <v>193</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>44</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>42</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" t="s">
         <v>43</v>
       </c>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1" t="s">
+      <c r="G175" t="s">
         <v>594</v>
       </c>
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>330</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>331</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" t="s">
         <v>332</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G176" s="1" t="s">
+      <c r="D176" t="s">
+        <v>578</v>
+      </c>
+      <c r="F176" t="s">
+        <v>578</v>
+      </c>
+      <c r="G176" t="s">
         <v>594</v>
       </c>
-      <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>366</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>364</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" t="s">
         <v>365</v>
       </c>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>45</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>46</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" t="s">
         <v>6</v>
       </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1" t="s">
+      <c r="H178" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>508</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>506</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" t="s">
         <v>507</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" t="s">
         <v>6</v>
       </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1" t="s">
+      <c r="H179" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>353</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>354</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" t="s">
         <v>353</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" t="s">
         <v>574</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" t="s">
         <v>574</v>
       </c>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>146</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>147</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" t="s">
         <v>146</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E181" s="1" t="s">
+      <c r="D181" t="s">
+        <v>577</v>
+      </c>
+      <c r="E181" t="s">
         <v>574</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="F181" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" t="s">
         <v>182</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E182" s="1" t="s">
+      <c r="D182" t="s">
+        <v>577</v>
+      </c>
+      <c r="E182" t="s">
         <v>574</v>
       </c>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>568</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>558</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" t="s">
         <v>569</v>
       </c>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1" t="s">
+      <c r="E183" t="s">
         <v>574</v>
       </c>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>288</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>286</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" t="s">
         <v>287</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E184" s="1" t="s">
+      <c r="D184" t="s">
+        <v>578</v>
+      </c>
+      <c r="E184" t="s">
         <v>574</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="F184" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>26</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>25</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" t="s">
         <v>625</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E185" s="1"/>
+      <c r="D185" t="s">
+        <v>578</v>
+      </c>
       <c r="F185" t="s">
         <v>578</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" t="s">
         <v>27</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>418</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>416</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" t="s">
         <v>417</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="D186" t="s">
+        <v>578</v>
+      </c>
+      <c r="F186" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>58</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>56</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" t="s">
         <v>57</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="D187" t="s">
+        <v>577</v>
+      </c>
+      <c r="F187" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4" t="s">
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H188" s="4"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>434</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>435</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" t="s">
         <v>436</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G189" s="1" t="s">
+      <c r="D189" t="s">
+        <v>577</v>
+      </c>
+      <c r="F189" t="s">
+        <v>577</v>
+      </c>
+      <c r="G189" t="s">
         <v>631</v>
       </c>
-      <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>433</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>431</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" t="s">
         <v>432</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G190" s="1" t="s">
+      <c r="D190" t="s">
+        <v>577</v>
+      </c>
+      <c r="F190" t="s">
+        <v>577</v>
+      </c>
+      <c r="G190" t="s">
         <v>631</v>
       </c>
-      <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>566</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>564</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" t="s">
         <v>565</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G191" s="1" t="s">
+      <c r="D191" t="s">
+        <v>577</v>
+      </c>
+      <c r="F191" t="s">
+        <v>577</v>
+      </c>
+      <c r="G191" t="s">
         <v>623</v>
       </c>
-      <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>111</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>112</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" t="s">
         <v>111</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" t="s">
         <v>620</v>
       </c>
-      <c r="E192" s="1"/>
-      <c r="G192" s="1" t="s">
+      <c r="G192" t="s">
         <v>620</v>
       </c>
-      <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>374</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>372</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" t="s">
         <v>373</v>
       </c>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>280</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>281</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" t="s">
         <v>282</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="D194" t="s">
+        <v>578</v>
+      </c>
+      <c r="F194" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>258</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>259</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" t="s">
         <v>258</v>
       </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>110</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>108</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" t="s">
         <v>109</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="D196" t="s">
+        <v>578</v>
+      </c>
+      <c r="F196" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>107</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>105</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" t="s">
         <v>106</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="D197" t="s">
+        <v>578</v>
+      </c>
+      <c r="F197" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>277</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>278</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" t="s">
         <v>279</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" t="s">
         <v>6</v>
       </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>155</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>153</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" t="s">
         <v>154</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="D199" t="s">
+        <v>578</v>
+      </c>
+      <c r="F199" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>40</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>37</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" t="s">
         <v>38</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
       <c r="G200" t="s">
         <v>611</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H200" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>480</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>481</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" t="s">
         <v>482</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" t="s">
         <v>6</v>
       </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>412</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>410</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" t="s">
         <v>411</v>
       </c>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6447,400 +5850,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FB5C70-2C1C-4945-AE61-EC12B3832466}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>355</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>355</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>357</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>358</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>386</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>389</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>394</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>391</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>392</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>398</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>399</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>398</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>398</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>310</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>311</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>312</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>314</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>312</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>314</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>315</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Epilepsy_Seizure_list.xlsx
+++ b/Epilepsy_Seizure_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beata\Documents\GitHub_folders\ExECT-PostProcessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\be007844\Documents\NLP\text_file\ExOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DFC26B-F6E9-45AE-9F93-F82614F52164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{5057C868-ABE5-449B-BA94-70CBCA7090BC}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="epilepsy" sheetId="2" r:id="rId1"/>
@@ -38,15 +37,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{331AFDDF-576D-4305-B754-F767DB638276}" keepAlive="1" name="Query - epilepsy" description="Connection to the 'epilepsy' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - epilepsy" description="Connection to the 'epilepsy' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=epilepsy;Extended Properties=&quot;&quot;" command="SELECT * FROM [epilepsy]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="646">
   <si>
     <t>myoclonic epilepsy</t>
   </si>
@@ -430,9 +429,6 @@
   </si>
   <si>
     <t>Tonic seizures</t>
-  </si>
-  <si>
-    <t>atonic seizure</t>
   </si>
   <si>
     <t>C0270846</t>
@@ -1992,7 +1988,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2091,7 +2087,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{68EE91CA-5B5C-43E4-8497-496749EC6F1D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="13" unboundColumnsRight="2">
     <queryTableFields count="8">
       <queryTableField id="1" name="Column1.1" tableColumnId="1"/>
@@ -2114,20 +2110,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F0988C9-05E4-4380-A9A5-AF3008610F5B}" name="epilepsy" displayName="epilepsy" ref="A1:H202" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H202" xr:uid="{4F0988C9-05E4-4380-A9A5-AF3008610F5B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="epilepsy" displayName="epilepsy" ref="A1:H202" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H202"/>
+  <sortState ref="A2:H202">
     <sortCondition ref="A1:A202"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E524DA0E-531A-422F-BF36-B97E4C2FCA14}" uniqueName="1" name="Phrase" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{32D3CF41-7392-4ACB-A2BE-870FC6740798}" uniqueName="3" name="CUI" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D9049E5A-B10D-4F85-BCF6-F375C300D54E}" uniqueName="5" name="PREF" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{10548B7B-9093-401B-BC02-731243A4FC97}" uniqueName="8" name="EpilepsyType" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{98E53064-E4F3-4E76-A5C3-2472F4E64383}" uniqueName="12" name="Symptomatic" queryTableFieldId="12" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{396EE48B-EC07-473B-92F9-D792EE185D29}" uniqueName="9" name="SeizureType" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D45B6C57-F4BE-4A64-A5F9-7350EB9A4DC3}" uniqueName="11" name="SeizureDet" queryTableFieldId="11" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{4BB5A9AF-F26F-4F3A-B284-587EB9CBDFBE}" uniqueName="10" name="Syndrome" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Phrase" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="3" uniqueName="3" name="CUI" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="5" uniqueName="5" name="PREF" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="8" uniqueName="8" name="EpilepsyType" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="12" uniqueName="12" name="Symptomatic" queryTableFieldId="12" dataDxfId="3"/>
+    <tableColumn id="9" uniqueName="9" name="SeizureType" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="11" uniqueName="11" name="SeizureDet" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="10" uniqueName="10" name="Syndrome" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2429,52 +2425,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83649BD8-6D77-487A-84FC-F20E87199EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="41.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1" t="s">
         <v>627</v>
       </c>
-      <c r="C1" t="s">
-        <v>628</v>
-      </c>
       <c r="D1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" t="s">
         <v>571</v>
       </c>
-      <c r="E1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1" t="s">
         <v>572</v>
       </c>
-      <c r="G1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2485,18 +2481,18 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -2505,148 +2501,148 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>267</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>268</v>
       </c>
-      <c r="D4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" t="s">
-        <v>577</v>
-      </c>
-      <c r="F5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" t="s">
-        <v>577</v>
-      </c>
-      <c r="F6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" t="s">
-        <v>577</v>
-      </c>
-      <c r="F7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>269</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" t="s">
-        <v>271</v>
-      </c>
       <c r="D8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F8" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
         <v>183</v>
-      </c>
-      <c r="C10" t="s">
-        <v>184</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11" t="s">
         <v>500</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>501</v>
       </c>
-      <c r="C11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -2655,30 +2651,30 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" t="s">
         <v>497</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>498</v>
-      </c>
-      <c r="C13" t="s">
-        <v>499</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2689,109 +2685,99 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>129</v>
       </c>
-      <c r="C16" t="s">
-        <v>130</v>
-      </c>
       <c r="D16" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" t="s">
         <v>324</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>325</v>
       </c>
-      <c r="C17" t="s">
-        <v>326</v>
-      </c>
       <c r="D17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
         <v>318</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>319</v>
       </c>
-      <c r="C18" t="s">
-        <v>320</v>
-      </c>
       <c r="D18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G18" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" t="s">
         <v>249</v>
       </c>
-      <c r="C19" t="s">
-        <v>250</v>
-      </c>
       <c r="D19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F19" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B20" t="s">
         <v>545</v>
       </c>
-      <c r="B20" t="s">
-        <v>546</v>
-      </c>
       <c r="C20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -2801,15 +2787,15 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" t="s">
         <v>477</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>478</v>
-      </c>
-      <c r="C21" t="s">
-        <v>479</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -2819,15 +2805,15 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -2837,132 +2823,132 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C23" t="s">
         <v>395</v>
       </c>
-      <c r="C23" t="s">
-        <v>396</v>
-      </c>
       <c r="D23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F23" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
         <v>204</v>
       </c>
-      <c r="B24" t="s">
-        <v>205</v>
-      </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C25" t="s">
         <v>440</v>
       </c>
-      <c r="C25" t="s">
-        <v>441</v>
-      </c>
       <c r="D25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" t="s">
         <v>489</v>
       </c>
-      <c r="C26" t="s">
-        <v>490</v>
-      </c>
       <c r="D26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F26" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
         <v>140</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>141</v>
       </c>
-      <c r="C27" t="s">
-        <v>142</v>
-      </c>
       <c r="D27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G27" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" t="s">
         <v>206</v>
       </c>
-      <c r="C28" t="s">
-        <v>207</v>
-      </c>
       <c r="D28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F28" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" t="s">
         <v>437</v>
       </c>
-      <c r="C29" t="s">
-        <v>438</v>
-      </c>
       <c r="D29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F29" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -2973,67 +2959,67 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B31" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" t="s">
+        <v>492</v>
+      </c>
+      <c r="D31" t="s">
+        <v>576</v>
+      </c>
+      <c r="F31" t="s">
+        <v>576</v>
+      </c>
+      <c r="H31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>577</v>
+      </c>
+      <c r="F32" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>495</v>
+      </c>
+      <c r="B33" t="s">
         <v>493</v>
       </c>
-      <c r="B31" t="s">
-        <v>638</v>
-      </c>
-      <c r="C31" t="s">
-        <v>493</v>
-      </c>
-      <c r="D31" t="s">
-        <v>577</v>
-      </c>
-      <c r="F31" t="s">
-        <v>577</v>
-      </c>
-      <c r="H31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>578</v>
-      </c>
-      <c r="F32" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>496</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>494</v>
-      </c>
-      <c r="C33" t="s">
-        <v>495</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3044,76 +3030,76 @@
         <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G34" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>642</v>
+      </c>
+      <c r="B35" t="s">
+        <v>641</v>
+      </c>
+      <c r="C35" t="s">
         <v>643</v>
       </c>
-      <c r="B35" t="s">
-        <v>642</v>
-      </c>
-      <c r="C35" t="s">
-        <v>644</v>
-      </c>
       <c r="D35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G35" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>468</v>
+      </c>
+      <c r="B36" t="s">
         <v>469</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>470</v>
       </c>
-      <c r="C36" t="s">
-        <v>471</v>
-      </c>
       <c r="D36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G36" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -3124,36 +3110,36 @@
         <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G38" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" t="s">
         <v>472</v>
       </c>
-      <c r="B39" t="s">
-        <v>473</v>
-      </c>
       <c r="C39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G39" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -3164,50 +3150,50 @@
         <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G40" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" t="s">
         <v>243</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>244</v>
       </c>
-      <c r="C41" t="s">
-        <v>245</v>
-      </c>
       <c r="D41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F41" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" t="s">
         <v>289</v>
       </c>
-      <c r="C42" t="s">
-        <v>290</v>
-      </c>
       <c r="D42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -3218,456 +3204,456 @@
         <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F43" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B44" t="s">
+        <v>502</v>
+      </c>
+      <c r="C44" t="s">
         <v>503</v>
-      </c>
-      <c r="C44" t="s">
-        <v>504</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
         <v>220</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>221</v>
       </c>
-      <c r="C45" t="s">
-        <v>222</v>
-      </c>
       <c r="D45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" t="s">
         <v>321</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>322</v>
-      </c>
-      <c r="C46" t="s">
-        <v>323</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s">
+        <v>423</v>
+      </c>
+      <c r="C47" t="s">
         <v>424</v>
-      </c>
-      <c r="C47" t="s">
-        <v>425</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" t="s">
         <v>427</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>428</v>
-      </c>
-      <c r="C48" t="s">
-        <v>429</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" t="s">
         <v>228</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>229</v>
-      </c>
-      <c r="C49" t="s">
-        <v>230</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" t="s">
-        <v>149</v>
-      </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H50" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
         <v>209</v>
       </c>
-      <c r="C51" t="s">
-        <v>210</v>
-      </c>
       <c r="D51" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" t="s">
         <v>362</v>
       </c>
-      <c r="B52" t="s">
-        <v>363</v>
-      </c>
       <c r="C52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>523</v>
+      </c>
+      <c r="B53" t="s">
         <v>524</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>525</v>
-      </c>
-      <c r="C53" t="s">
-        <v>526</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>526</v>
+      </c>
+      <c r="B54" t="s">
         <v>527</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>528</v>
-      </c>
-      <c r="C54" t="s">
-        <v>529</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B55" t="s">
+        <v>535</v>
+      </c>
+      <c r="C55" t="s">
         <v>536</v>
-      </c>
-      <c r="C55" t="s">
-        <v>537</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>538</v>
+      </c>
+      <c r="B56" t="s">
         <v>539</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>540</v>
-      </c>
-      <c r="C56" t="s">
-        <v>541</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>548</v>
+      </c>
+      <c r="B57" t="s">
+        <v>546</v>
+      </c>
+      <c r="C57" t="s">
+        <v>547</v>
+      </c>
+      <c r="D57" t="s">
+        <v>577</v>
+      </c>
+      <c r="E57" t="s">
+        <v>573</v>
+      </c>
+      <c r="H57" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>551</v>
+      </c>
+      <c r="B58" t="s">
+        <v>552</v>
+      </c>
+      <c r="C58" t="s">
+        <v>553</v>
+      </c>
+      <c r="D58" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>549</v>
       </c>
-      <c r="B57" t="s">
-        <v>547</v>
-      </c>
-      <c r="C57" t="s">
-        <v>548</v>
-      </c>
-      <c r="D57" t="s">
-        <v>578</v>
-      </c>
-      <c r="E57" t="s">
-        <v>574</v>
-      </c>
-      <c r="H57" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>552</v>
-      </c>
-      <c r="B58" t="s">
-        <v>553</v>
-      </c>
-      <c r="C58" t="s">
-        <v>554</v>
-      </c>
-      <c r="D58" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>550</v>
       </c>
-      <c r="B59" t="s">
-        <v>551</v>
-      </c>
       <c r="C59" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" t="s">
         <v>291</v>
       </c>
-      <c r="C60" t="s">
-        <v>292</v>
-      </c>
       <c r="D60" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B61" t="s">
+        <v>529</v>
+      </c>
+      <c r="C61" t="s">
         <v>530</v>
-      </c>
-      <c r="C61" t="s">
-        <v>531</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
         <v>177</v>
       </c>
-      <c r="C62" t="s">
-        <v>178</v>
-      </c>
       <c r="D62" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E62" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B63" t="s">
+        <v>532</v>
+      </c>
+      <c r="C63" t="s">
         <v>533</v>
       </c>
-      <c r="C63" t="s">
-        <v>534</v>
-      </c>
       <c r="D63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E63" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" t="s">
         <v>218</v>
       </c>
-      <c r="C64" t="s">
-        <v>219</v>
-      </c>
       <c r="D64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F64" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B65" t="s">
+        <v>541</v>
+      </c>
+      <c r="C65" t="s">
         <v>542</v>
       </c>
-      <c r="C65" t="s">
-        <v>543</v>
-      </c>
       <c r="D65" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E65" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>400</v>
+      </c>
+      <c r="B66" t="s">
         <v>401</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>402</v>
-      </c>
-      <c r="C66" t="s">
-        <v>403</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" t="s">
         <v>246</v>
-      </c>
-      <c r="C67" t="s">
-        <v>247</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" t="s">
         <v>413</v>
-      </c>
-      <c r="C68" t="s">
-        <v>414</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>405</v>
+      </c>
+      <c r="B69" t="s">
         <v>406</v>
       </c>
-      <c r="B69" t="s">
-        <v>407</v>
-      </c>
       <c r="C69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" t="s">
         <v>404</v>
       </c>
-      <c r="B70" t="s">
-        <v>405</v>
-      </c>
       <c r="C70" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>473</v>
+      </c>
+      <c r="B71" t="s">
         <v>474</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>475</v>
-      </c>
-      <c r="C71" t="s">
-        <v>476</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3681,129 +3667,129 @@
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" t="s">
         <v>186</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>187</v>
       </c>
-      <c r="C73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74" t="s">
         <v>359</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>360</v>
       </c>
-      <c r="C74" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
         <v>135</v>
       </c>
-      <c r="B75" t="s">
-        <v>136</v>
-      </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
         <v>237</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>238</v>
       </c>
-      <c r="C76" t="s">
-        <v>239</v>
-      </c>
       <c r="D76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F76" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C77" t="s">
         <v>408</v>
       </c>
-      <c r="C77" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>482</v>
+      </c>
+      <c r="B78" t="s">
         <v>483</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>484</v>
-      </c>
-      <c r="C78" t="s">
-        <v>485</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D79" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>338</v>
+      </c>
+      <c r="B80" t="s">
         <v>339</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>340</v>
       </c>
-      <c r="C80" t="s">
-        <v>341</v>
-      </c>
       <c r="D80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F80" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
@@ -3812,52 +3798,52 @@
         <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F81" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G81" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>554</v>
+      </c>
+      <c r="B82" t="s">
         <v>555</v>
       </c>
-      <c r="B82" t="s">
-        <v>556</v>
-      </c>
       <c r="C82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F82" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" t="s">
         <v>198</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>199</v>
       </c>
-      <c r="C83" t="s">
-        <v>200</v>
-      </c>
       <c r="D83" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F83" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B84" t="s">
         <v>17</v>
@@ -3866,13 +3852,13 @@
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F84" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -3883,64 +3869,64 @@
         <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F85" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G85" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B86" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" t="s">
         <v>327</v>
       </c>
-      <c r="C86" t="s">
-        <v>328</v>
-      </c>
       <c r="D86" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F86" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>300</v>
+      </c>
+      <c r="B87" t="s">
         <v>301</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>302</v>
       </c>
-      <c r="C87" t="s">
-        <v>303</v>
-      </c>
       <c r="D87" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F87" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" t="s">
         <v>255</v>
       </c>
-      <c r="C88" t="s">
-        <v>256</v>
-      </c>
       <c r="F88" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -3951,40 +3937,40 @@
         <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F89" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G89" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -3993,13 +3979,13 @@
         <v>47</v>
       </c>
       <c r="D91" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -4010,16 +3996,16 @@
         <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F92" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G92" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -4033,23 +4019,23 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94" t="s">
         <v>369</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>370</v>
       </c>
-      <c r="C94" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -4058,55 +4044,55 @@
         <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E95" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F95" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" t="s">
         <v>174</v>
       </c>
-      <c r="C97" t="s">
-        <v>175</v>
-      </c>
       <c r="D97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F97" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -4117,66 +4103,66 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F98" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B99" t="s">
+        <v>485</v>
+      </c>
+      <c r="C99" t="s">
         <v>486</v>
       </c>
-      <c r="C99" t="s">
-        <v>487</v>
-      </c>
       <c r="D99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F99" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" t="s">
         <v>298</v>
       </c>
-      <c r="C100" t="s">
-        <v>299</v>
-      </c>
       <c r="F100" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D101" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -4187,16 +4173,16 @@
         <v>43</v>
       </c>
       <c r="D102" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F102" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G102" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -4207,44 +4193,44 @@
         <v>72</v>
       </c>
       <c r="D103" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F103" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>374</v>
+      </c>
+      <c r="B104" t="s">
         <v>375</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>376</v>
-      </c>
-      <c r="C104" t="s">
-        <v>377</v>
       </c>
       <c r="D104" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" t="s">
         <v>156</v>
       </c>
-      <c r="C105" t="s">
-        <v>157</v>
-      </c>
       <c r="D105" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F105" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4258,10 +4244,10 @@
         <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>69</v>
       </c>
@@ -4275,10 +4261,10 @@
         <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -4289,84 +4275,84 @@
         <v>38</v>
       </c>
       <c r="H108" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" t="s">
         <v>137</v>
       </c>
-      <c r="C109" t="s">
-        <v>138</v>
-      </c>
       <c r="D109" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F109" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H109" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>520</v>
+      </c>
+      <c r="B110" t="s">
         <v>521</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>522</v>
-      </c>
-      <c r="C110" t="s">
-        <v>523</v>
       </c>
       <c r="D110" t="s">
         <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>39</v>
       </c>
       <c r="B111" t="s">
+        <v>582</v>
+      </c>
+      <c r="C111" t="s">
         <v>583</v>
       </c>
-      <c r="C111" t="s">
-        <v>584</v>
-      </c>
       <c r="F111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G111" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>454</v>
+      </c>
+      <c r="B112" t="s">
         <v>455</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>456</v>
       </c>
-      <c r="C112" t="s">
-        <v>457</v>
-      </c>
       <c r="D112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G112" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -4377,101 +4363,101 @@
         <v>31</v>
       </c>
       <c r="D113" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F113" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G113" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" t="s">
         <v>143</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>576</v>
+      </c>
+      <c r="F114" t="s">
+        <v>576</v>
+      </c>
+      <c r="H114" t="s">
         <v>144</v>
       </c>
-      <c r="D114" t="s">
-        <v>577</v>
-      </c>
-      <c r="F114" t="s">
-        <v>577</v>
-      </c>
-      <c r="H114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B115" t="s">
+        <v>512</v>
+      </c>
+      <c r="C115" t="s">
         <v>513</v>
       </c>
-      <c r="C115" t="s">
-        <v>514</v>
-      </c>
       <c r="D115" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F115" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G115" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H115" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" t="s">
         <v>171</v>
       </c>
-      <c r="B116" t="s">
-        <v>172</v>
-      </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B117" t="s">
+        <v>451</v>
+      </c>
+      <c r="C117" t="s">
         <v>452</v>
-      </c>
-      <c r="C117" t="s">
-        <v>453</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B118" t="s">
+        <v>448</v>
+      </c>
+      <c r="C118" t="s">
         <v>449</v>
-      </c>
-      <c r="C118" t="s">
-        <v>450</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>78</v>
       </c>
@@ -4482,177 +4468,177 @@
         <v>78</v>
       </c>
       <c r="G119" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H119" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>292</v>
+      </c>
+      <c r="B120" t="s">
         <v>293</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>294</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>577</v>
+      </c>
+      <c r="F120" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>282</v>
+      </c>
+      <c r="B121" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" t="s">
+        <v>284</v>
+      </c>
+      <c r="D121" t="s">
+        <v>577</v>
+      </c>
+      <c r="F121" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>609</v>
+      </c>
+      <c r="B122" t="s">
         <v>295</v>
       </c>
-      <c r="D120" t="s">
-        <v>578</v>
-      </c>
-      <c r="F120" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>283</v>
-      </c>
-      <c r="B121" t="s">
-        <v>284</v>
-      </c>
-      <c r="C121" t="s">
-        <v>285</v>
-      </c>
-      <c r="D121" t="s">
-        <v>578</v>
-      </c>
-      <c r="F121" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>610</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>296</v>
       </c>
-      <c r="C122" t="s">
-        <v>297</v>
-      </c>
       <c r="D122" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E122" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F122" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>634</v>
+      </c>
+      <c r="B123" t="s">
         <v>635</v>
       </c>
-      <c r="B123" t="s">
-        <v>636</v>
-      </c>
       <c r="C123" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F123" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>515</v>
+      </c>
+      <c r="B124" t="s">
         <v>516</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>517</v>
       </c>
-      <c r="C124" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>418</v>
+      </c>
+      <c r="B125" t="s">
         <v>419</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>420</v>
       </c>
-      <c r="C125" t="s">
-        <v>421</v>
-      </c>
       <c r="D125" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" t="s">
         <v>333</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>334</v>
-      </c>
-      <c r="C126" t="s">
-        <v>335</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B128" t="s">
+        <v>558</v>
+      </c>
+      <c r="C128" t="s">
         <v>559</v>
       </c>
-      <c r="C128" t="s">
-        <v>560</v>
-      </c>
       <c r="D128" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F128" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B129" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" t="s">
         <v>275</v>
       </c>
-      <c r="C129" t="s">
-        <v>276</v>
-      </c>
       <c r="D129" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F129" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4663,38 +4649,38 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F130" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B131" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" t="s">
         <v>422</v>
       </c>
-      <c r="C131" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B132" t="s">
+        <v>508</v>
+      </c>
+      <c r="C132" t="s">
         <v>509</v>
       </c>
-      <c r="C132" t="s">
-        <v>510</v>
-      </c>
       <c r="G132" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -4708,24 +4694,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" t="s">
         <v>240</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>241</v>
       </c>
-      <c r="C134" t="s">
-        <v>242</v>
-      </c>
       <c r="D134" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F134" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>104</v>
       </c>
@@ -4736,197 +4722,197 @@
         <v>103</v>
       </c>
       <c r="D135" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F135" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G135" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" t="s">
         <v>215</v>
       </c>
-      <c r="C136" t="s">
-        <v>216</v>
-      </c>
       <c r="D136" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F136" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B137" t="s">
+        <v>224</v>
+      </c>
+      <c r="C137" t="s">
         <v>225</v>
-      </c>
-      <c r="C137" t="s">
-        <v>226</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" t="s">
         <v>252</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>253</v>
       </c>
-      <c r="C138" t="s">
-        <v>254</v>
-      </c>
       <c r="D138" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F138" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D139" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F139" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B140" t="s">
+        <v>638</v>
+      </c>
+      <c r="C140" t="s">
         <v>639</v>
       </c>
-      <c r="C140" t="s">
-        <v>640</v>
-      </c>
       <c r="D140" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F140" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" t="s">
         <v>165</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>166</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>577</v>
+      </c>
+      <c r="F141" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" t="s">
+        <v>577</v>
+      </c>
+      <c r="F142" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>167</v>
       </c>
-      <c r="D141" t="s">
-        <v>578</v>
-      </c>
-      <c r="F141" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>162</v>
-      </c>
-      <c r="B142" t="s">
-        <v>163</v>
-      </c>
-      <c r="C142" t="s">
-        <v>164</v>
-      </c>
-      <c r="D142" t="s">
-        <v>578</v>
-      </c>
-      <c r="F142" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>168</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>169</v>
       </c>
-      <c r="C143" t="s">
-        <v>170</v>
-      </c>
       <c r="D143" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F143" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B144" t="s">
+        <v>230</v>
+      </c>
+      <c r="C144" t="s">
         <v>231</v>
-      </c>
-      <c r="C144" t="s">
-        <v>232</v>
       </c>
       <c r="D144" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" t="s">
         <v>381</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>382</v>
       </c>
-      <c r="C145" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B146" t="s">
+        <v>463</v>
+      </c>
+      <c r="C146" t="s">
         <v>464</v>
       </c>
-      <c r="C146" t="s">
-        <v>465</v>
-      </c>
       <c r="D146" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E146" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H146" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4937,128 +4923,128 @@
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F147" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
+        <v>188</v>
+      </c>
+      <c r="C148" t="s">
         <v>189</v>
-      </c>
-      <c r="C148" t="s">
-        <v>190</v>
       </c>
       <c r="D148" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B149" t="s">
+        <v>233</v>
+      </c>
+      <c r="C149" t="s">
         <v>234</v>
-      </c>
-      <c r="C149" t="s">
-        <v>235</v>
       </c>
       <c r="D149" t="s">
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B150" t="s">
+        <v>377</v>
+      </c>
+      <c r="C150" t="s">
         <v>378</v>
       </c>
-      <c r="C150" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" t="s">
         <v>201</v>
       </c>
-      <c r="C151" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B152" t="s">
+        <v>445</v>
+      </c>
+      <c r="C152" t="s">
         <v>446</v>
-      </c>
-      <c r="C152" t="s">
-        <v>447</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
         <v>159</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>160</v>
-      </c>
-      <c r="C153" t="s">
-        <v>161</v>
       </c>
       <c r="D153" t="s">
         <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B154" t="s">
+        <v>347</v>
+      </c>
+      <c r="C154" t="s">
         <v>348</v>
-      </c>
-      <c r="C154" t="s">
-        <v>349</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B155" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" t="s">
         <v>367</v>
       </c>
-      <c r="C155" t="s">
-        <v>368</v>
-      </c>
       <c r="G155" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>95</v>
       </c>
@@ -5069,16 +5055,16 @@
         <v>97</v>
       </c>
       <c r="D156" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F156" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G156" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -5089,13 +5075,13 @@
         <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H157" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>79</v>
       </c>
@@ -5106,61 +5092,61 @@
         <v>79</v>
       </c>
       <c r="D158" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E158" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F158" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H158" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>194</v>
+      </c>
+      <c r="B159" t="s">
         <v>195</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>196</v>
       </c>
-      <c r="C159" t="s">
-        <v>197</v>
-      </c>
       <c r="D159" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>460</v>
+      </c>
+      <c r="B160" t="s">
         <v>461</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>462</v>
       </c>
-      <c r="C160" t="s">
-        <v>463</v>
-      </c>
       <c r="D160" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F160" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>306</v>
+      </c>
+      <c r="B161" t="s">
         <v>307</v>
       </c>
-      <c r="B161" t="s">
-        <v>308</v>
-      </c>
       <c r="C161" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>122</v>
       </c>
@@ -5171,53 +5157,53 @@
         <v>124</v>
       </c>
       <c r="D162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F162" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G162" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B163" t="s">
+        <v>344</v>
+      </c>
+      <c r="C163" t="s">
         <v>345</v>
       </c>
-      <c r="C163" t="s">
-        <v>346</v>
-      </c>
       <c r="D163" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F163" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G163" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>457</v>
+      </c>
+      <c r="B164" t="s">
         <v>458</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>459</v>
       </c>
-      <c r="C164" t="s">
-        <v>460</v>
-      </c>
       <c r="D164" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H164" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -5231,74 +5217,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B166" t="s">
+        <v>315</v>
+      </c>
+      <c r="C166" t="s">
         <v>316</v>
       </c>
-      <c r="C166" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>350</v>
+      </c>
+      <c r="B167" t="s">
         <v>351</v>
       </c>
-      <c r="B167" t="s">
-        <v>352</v>
-      </c>
       <c r="C167" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E167" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>303</v>
+      </c>
+      <c r="B168" t="s">
         <v>304</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>305</v>
       </c>
-      <c r="C168" t="s">
-        <v>306</v>
-      </c>
       <c r="D168" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F168" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B169" t="s">
+        <v>149</v>
+      </c>
+      <c r="C169" t="s">
         <v>150</v>
-      </c>
-      <c r="C169" t="s">
-        <v>151</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
       </c>
       <c r="E169" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>518</v>
+      </c>
+      <c r="B170" t="s">
         <v>519</v>
       </c>
-      <c r="B170" t="s">
-        <v>520</v>
-      </c>
       <c r="C170" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
@@ -5307,24 +5293,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B171" t="s">
+        <v>427</v>
+      </c>
+      <c r="C171" t="s">
         <v>428</v>
-      </c>
-      <c r="C171" t="s">
-        <v>429</v>
       </c>
       <c r="D171" t="s">
         <v>6</v>
       </c>
       <c r="F171" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>76</v>
       </c>
@@ -5335,13 +5321,13 @@
         <v>75</v>
       </c>
       <c r="D172" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F172" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>113</v>
       </c>
@@ -5352,30 +5338,30 @@
         <v>115</v>
       </c>
       <c r="D173" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F173" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G173" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B174" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" t="s">
         <v>192</v>
-      </c>
-      <c r="C174" t="s">
-        <v>193</v>
       </c>
       <c r="D174" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>44</v>
       </c>
@@ -5386,41 +5372,41 @@
         <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>329</v>
+      </c>
+      <c r="B176" t="s">
         <v>330</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>331</v>
       </c>
-      <c r="C176" t="s">
-        <v>332</v>
-      </c>
       <c r="D176" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F176" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G176" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B177" t="s">
+        <v>363</v>
+      </c>
+      <c r="C177" t="s">
         <v>364</v>
       </c>
-      <c r="C177" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -5434,115 +5420,115 @@
         <v>6</v>
       </c>
       <c r="H178" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B179" t="s">
+        <v>505</v>
+      </c>
+      <c r="C179" t="s">
         <v>506</v>
-      </c>
-      <c r="C179" t="s">
-        <v>507</v>
       </c>
       <c r="D179" t="s">
         <v>6</v>
       </c>
       <c r="H179" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" t="s">
         <v>353</v>
       </c>
-      <c r="B180" t="s">
-        <v>354</v>
-      </c>
       <c r="C180" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D180" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E180" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>145</v>
+      </c>
+      <c r="B181" t="s">
         <v>146</v>
       </c>
-      <c r="B181" t="s">
-        <v>147</v>
-      </c>
       <c r="C181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D181" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E181" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F181" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>181</v>
       </c>
-      <c r="C182" t="s">
-        <v>182</v>
-      </c>
       <c r="D182" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E182" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>567</v>
+      </c>
+      <c r="B183" t="s">
+        <v>557</v>
+      </c>
+      <c r="C183" t="s">
         <v>568</v>
       </c>
-      <c r="B183" t="s">
-        <v>558</v>
-      </c>
-      <c r="C183" t="s">
-        <v>569</v>
-      </c>
       <c r="E183" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B184" t="s">
+        <v>285</v>
+      </c>
+      <c r="C184" t="s">
         <v>286</v>
       </c>
-      <c r="C184" t="s">
-        <v>287</v>
-      </c>
       <c r="D184" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E184" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F184" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -5550,39 +5536,39 @@
         <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D185" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F185" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G185" t="s">
         <v>27</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B186" t="s">
+        <v>415</v>
+      </c>
+      <c r="C186" t="s">
         <v>416</v>
       </c>
-      <c r="C186" t="s">
-        <v>417</v>
-      </c>
       <c r="D186" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F186" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>58</v>
       </c>
@@ -5593,13 +5579,13 @@
         <v>57</v>
       </c>
       <c r="D187" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F187" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>125</v>
       </c>
@@ -5616,67 +5602,67 @@
       </c>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>433</v>
+      </c>
+      <c r="B189" t="s">
         <v>434</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>435</v>
       </c>
-      <c r="C189" t="s">
-        <v>436</v>
-      </c>
       <c r="D189" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F189" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G189" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B190" t="s">
+        <v>430</v>
+      </c>
+      <c r="C190" t="s">
         <v>431</v>
       </c>
-      <c r="C190" t="s">
-        <v>432</v>
-      </c>
       <c r="D190" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F190" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G190" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B191" t="s">
+        <v>563</v>
+      </c>
+      <c r="C191" t="s">
         <v>564</v>
       </c>
-      <c r="C191" t="s">
-        <v>565</v>
-      </c>
       <c r="D191" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F191" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G191" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>111</v>
       </c>
@@ -5687,52 +5673,52 @@
         <v>111</v>
       </c>
       <c r="D192" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G192" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B193" t="s">
+        <v>371</v>
+      </c>
+      <c r="C193" t="s">
         <v>372</v>
       </c>
-      <c r="C193" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>279</v>
+      </c>
+      <c r="B194" t="s">
         <v>280</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>281</v>
       </c>
-      <c r="C194" t="s">
-        <v>282</v>
-      </c>
       <c r="D194" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F194" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>257</v>
+      </c>
+      <c r="B195" t="s">
         <v>258</v>
       </c>
-      <c r="B195" t="s">
-        <v>259</v>
-      </c>
       <c r="C195" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>110</v>
       </c>
@@ -5743,13 +5729,13 @@
         <v>109</v>
       </c>
       <c r="D196" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F196" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>107</v>
       </c>
@@ -5760,44 +5746,44 @@
         <v>106</v>
       </c>
       <c r="D197" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F197" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>276</v>
+      </c>
+      <c r="B198" t="s">
         <v>277</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>278</v>
-      </c>
-      <c r="C198" t="s">
-        <v>279</v>
       </c>
       <c r="D198" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B199" t="s">
+        <v>152</v>
+      </c>
+      <c r="C199" t="s">
         <v>153</v>
       </c>
-      <c r="C199" t="s">
-        <v>154</v>
-      </c>
       <c r="D199" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F199" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>40</v>
       </c>
@@ -5808,35 +5794,35 @@
         <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H200" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>479</v>
+      </c>
+      <c r="B201" t="s">
         <v>480</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>481</v>
-      </c>
-      <c r="C201" t="s">
-        <v>482</v>
       </c>
       <c r="D201" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B202" t="s">
+        <v>409</v>
+      </c>
+      <c r="C202" t="s">
         <v>410</v>
-      </c>
-      <c r="C202" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5849,19 +5835,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FB5C70-2C1C-4945-AE61-EC12B3832466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -5875,7 +5861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -5889,7 +5875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -5903,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5917,7 +5903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -5931,127 +5917,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" t="s">
         <v>355</v>
       </c>
-      <c r="B6" t="s">
-        <v>356</v>
-      </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" t="s">
         <v>356</v>
-      </c>
-      <c r="C7" t="s">
-        <v>357</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" t="s">
         <v>384</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>385</v>
-      </c>
-      <c r="C9" t="s">
-        <v>386</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" t="s">
         <v>387</v>
-      </c>
-      <c r="C10" t="s">
-        <v>388</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" t="s">
         <v>390</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>391</v>
-      </c>
-      <c r="C11" t="s">
-        <v>392</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" t="s">
         <v>391</v>
-      </c>
-      <c r="C12" t="s">
-        <v>392</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" t="s">
         <v>391</v>
-      </c>
-      <c r="C13" t="s">
-        <v>392</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" t="s">
         <v>398</v>
       </c>
-      <c r="B14" t="s">
-        <v>399</v>
-      </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -6063,88 +6049,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" t="s">
         <v>309</v>
       </c>
-      <c r="B16" t="s">
-        <v>310</v>
-      </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" t="s">
         <v>311</v>
       </c>
-      <c r="B17" t="s">
-        <v>312</v>
-      </c>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" t="s">
         <v>312</v>
-      </c>
-      <c r="C18" t="s">
-        <v>313</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" t="s">
         <v>315</v>
       </c>
-      <c r="B20" t="s">
-        <v>316</v>
-      </c>
       <c r="C20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
